--- a/Final Project Surveys.xlsx
+++ b/Final Project Surveys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8668940861420295/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8668940861420295/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{71DDFA4C-6154-4934-BCAF-53F141499C71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FEACCCB7-74B7-4EF7-A08A-46438E7AEAEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F77DF1A-38AB-47F7-95A1-7C5ED09126A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1480" windowWidth="16920" windowHeight="10540" xr2:uid="{F0A2AE84-F0F9-4253-A240-B64C7CBFDEEC}"/>
   </bookViews>
@@ -336,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,12 +344,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,9 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B041CBDF-F3F7-41DF-854A-762017E184E4}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -860,6 +874,9 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>11</v>
       </c>
@@ -889,11 +906,17 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
         <v>6</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -929,24 +952,69 @@
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>5</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
         <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -962,6 +1030,15 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -976,6 +1053,9 @@
       <c r="D19">
         <v>4</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="F19">
         <v>2</v>
       </c>
@@ -1002,6 +1082,9 @@
       <c r="F20">
         <v>4</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -1010,11 +1093,20 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1027,6 +1119,9 @@
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -1041,6 +1136,12 @@
       <c r="A23">
         <v>9</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
         <v>2</v>
       </c>
@@ -1049,14 +1150,26 @@
       </c>
       <c r="F23">
         <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
         <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1077,11 +1190,23 @@
       <c r="A26">
         <v>0</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -1089,6 +1214,9 @@
       </c>
       <c r="B28">
         <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1175,6 +1303,9 @@
       <c r="A37" t="s">
         <v>18</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -1196,11 +1327,17 @@
       <c r="A40" t="s">
         <v>21</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>22</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -1222,6 +1359,9 @@
       <c r="A44" t="s">
         <v>24</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
@@ -1462,165 +1602,220 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>1</v>
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>3</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>4</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>5</v>
       </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>6</v>
       </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>7</v>
       </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>8</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>9</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="F77">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>10</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
         <v>2</v>
       </c>
     </row>
